--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_410__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_410__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,187 +5873,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>0.7287017703056335</c:v>
+                  <c:v>0.7286965847015381</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.47873878479004</c:v>
+                  <c:v>12.47874546051025</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.3717622756958</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.482675552368164</c:v>
+                  <c:v>5.482683658599854</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.52626800537109</c:v>
+                  <c:v>42.52627563476562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.7166748046875</c:v>
+                  <c:v>15.71667671203613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.73642730712891</c:v>
+                  <c:v>32.7364387512207</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.19761848449707</c:v>
+                  <c:v>7.197604656219482</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.006035804748535</c:v>
+                  <c:v>9.006048202514648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.779526710510254</c:v>
+                  <c:v>-2.77951979637146</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.6220703125</c:v>
+                  <c:v>29.6220760345459</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.5576954483985901</c:v>
+                  <c:v>-0.5576977729797363</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.61328125</c:v>
+                  <c:v>26.6132755279541</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.00014209747314</c:v>
+                  <c:v>10.00014781951904</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.036152362823486</c:v>
+                  <c:v>6.036145687103271</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.67546081542969</c:v>
+                  <c:v>29.67544746398926</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.10310935974121</c:v>
+                  <c:v>24.10310554504395</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.16083145141602</c:v>
+                  <c:v>17.16082954406738</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.77141284942627</c:v>
+                  <c:v>10.7714204788208</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.22365188598633</c:v>
+                  <c:v>18.22366142272949</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>26.92970085144043</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.387869834899902</c:v>
+                  <c:v>9.387884140014648</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16.55047607421875</c:v>
+                  <c:v>16.55047988891602</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.94736099243164</c:v>
+                  <c:v>25.9473705291748</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.801503658294678</c:v>
+                  <c:v>2.801498889923096</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>9.535752296447754</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.60565567016602</c:v>
+                  <c:v>18.60563850402832</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15.39956378936768</c:v>
+                  <c:v>15.39955997467041</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21.65643692016602</c:v>
+                  <c:v>21.65643882751465</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>18.59005355834961</c:v>
+                  <c:v>18.59004783630371</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.42806625366211</c:v>
+                  <c:v>22.42807006835938</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.817541599273682</c:v>
+                  <c:v>6.817543029785156</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19.75581169128418</c:v>
+                  <c:v>19.75580978393555</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.90906810760498</c:v>
+                  <c:v>9.909061431884766</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.266144752502441</c:v>
+                  <c:v>8.266129493713379</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>33.32681655883789</c:v>
+                  <c:v>33.32681274414062</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.390174865722656</c:v>
+                  <c:v>7.390181541442871</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.003014206886292</c:v>
+                  <c:v>1.00301194190979</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10.19173717498779</c:v>
+                  <c:v>10.19174194335938</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15.65737247467041</c:v>
+                  <c:v>15.65736675262451</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.10722732543945</c:v>
+                  <c:v>24.10722160339355</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28.56839561462402</c:v>
+                  <c:v>28.56840133666992</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-3.892826318740845</c:v>
+                  <c:v>-3.892830848693848</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>18.5815372467041</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>24.85909080505371</c:v>
+                  <c:v>24.85907554626465</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13.84075164794922</c:v>
+                  <c:v>13.84074211120605</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13.64534378051758</c:v>
+                  <c:v>13.645339012146</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>13.94491386413574</c:v>
+                  <c:v>13.94490432739258</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18.90510559082031</c:v>
+                  <c:v>18.90510368347168</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18.23527145385742</c:v>
+                  <c:v>18.23526191711426</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10.72884750366211</c:v>
+                  <c:v>10.72885799407959</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14.84576511383057</c:v>
+                  <c:v>14.8457727432251</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>24.65048217773438</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>14.23844718933105</c:v>
+                  <c:v>14.23843860626221</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20.18024635314941</c:v>
+                  <c:v>20.18024253845215</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.49979209899902</c:v>
+                  <c:v>18.49979591369629</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>5.205856323242188</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>14.04875087738037</c:v>
+                  <c:v>14.048752784729</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.374634027481079</c:v>
+                  <c:v>3.374632358551025</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>18.82040596008301</c:v>
+                  <c:v>18.82041168212891</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>23.2961254119873</c:v>
+                  <c:v>23.29613876342773</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>11.47103500366211</c:v>
@@ -6062,109 +6062,109 @@
                   <c:v>31.46829223632812</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>18.64360809326172</c:v>
+                  <c:v>18.64361381530762</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.320011138916016</c:v>
+                  <c:v>9.320023536682129</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>16.07843208312988</c:v>
+                  <c:v>16.07844543457031</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>12.73629474639893</c:v>
+                  <c:v>12.73628902435303</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>14.89608001708984</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.862278461456299</c:v>
+                  <c:v>7.862276077270508</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11.9671745300293</c:v>
+                  <c:v>11.96718406677246</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18.20549201965332</c:v>
+                  <c:v>18.20548629760742</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>30.68782997131348</c:v>
+                  <c:v>30.68783187866211</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>14.56056213378906</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.48268985748291</c:v>
+                  <c:v>8.482694625854492</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>19.38116645812988</c:v>
+                  <c:v>19.38117980957031</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>18.51752662658691</c:v>
+                  <c:v>18.51753234863281</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.04936695098877</c:v>
+                  <c:v>8.04936408996582</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.146000266075134</c:v>
+                  <c:v>-1.146004319190979</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>21.7569522857666</c:v>
+                  <c:v>21.75693893432617</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-7.151005268096924</c:v>
+                  <c:v>-7.151013374328613</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>14.08244037628174</c:v>
+                  <c:v>14.08243846893311</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>17.83026504516602</c:v>
+                  <c:v>17.83026313781738</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>17.4583625793457</c:v>
+                  <c:v>17.45836448669434</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>22.76826667785645</c:v>
+                  <c:v>22.76827049255371</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>12.97643566131592</c:v>
+                  <c:v>12.97642230987549</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-2.42069673538208</c:v>
+                  <c:v>-2.420699119567871</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.400830268859863</c:v>
+                  <c:v>3.400822162628174</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>29.19531440734863</c:v>
+                  <c:v>29.19531059265137</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>13.18100929260254</c:v>
+                  <c:v>13.18099117279053</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.857381820678711</c:v>
+                  <c:v>5.857391357421875</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>17.35260391235352</c:v>
+                  <c:v>17.35260772705078</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.691270351409912</c:v>
+                  <c:v>7.691256523132324</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>14.49493217468262</c:v>
+                  <c:v>14.49493408203125</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>12.61452674865723</c:v>
+                  <c:v>12.61453056335449</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-2.312062740325928</c:v>
+                  <c:v>-2.312074422836304</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>23.24839782714844</c:v>
+                  <c:v>23.24840354919434</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>15.03341579437256</c:v>
+                  <c:v>15.03340435028076</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>28.00653648376465</c:v>
+                  <c:v>28.00652122497559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7287017703056335</v>
+        <v>0.7286965847015381</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>12.47873878479004</v>
+        <v>12.47874546051025</v>
       </c>
       <c r="G3">
         <v>85</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.482675552368164</v>
+        <v>5.482683658599854</v>
       </c>
       <c r="G5">
         <v>85</v>
@@ -6987,7 +6987,7 @@
         <v>47.7145</v>
       </c>
       <c r="F6">
-        <v>42.52626800537109</v>
+        <v>42.52627563476562</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.7166748046875</v>
+        <v>15.71667671203613</v>
       </c>
       <c r="G7">
         <v>85</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.73642730712891</v>
+        <v>32.7364387512207</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>7.19761848449707</v>
+        <v>7.197604656219482</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.006035804748535</v>
+        <v>9.006048202514648</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-2.779526710510254</v>
+        <v>-2.77951979637146</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.6220703125</v>
+        <v>29.6220760345459</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>-0.5576954483985901</v>
+        <v>-0.5576977729797363</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.61328125</v>
+        <v>26.6132755279541</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.00014209747314</v>
+        <v>10.00014781951904</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>6.036152362823486</v>
+        <v>6.036145687103271</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>29.67546081542969</v>
+        <v>29.67544746398926</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.10310935974121</v>
+        <v>24.10310554504395</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>17.16083145141602</v>
+        <v>17.16082954406738</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>10.77141284942627</v>
+        <v>10.7714204788208</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.22365188598633</v>
+        <v>18.22366142272949</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>9.387869834899902</v>
+        <v>9.387884140014648</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>16.55047607421875</v>
+        <v>16.55047988891602</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.94736099243164</v>
+        <v>25.9473705291748</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.801503658294678</v>
+        <v>2.801498889923096</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>18.60565567016602</v>
+        <v>18.60563850402832</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>15.39956378936768</v>
+        <v>15.39955997467041</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>21.65643692016602</v>
+        <v>21.65643882751465</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>18.59005355834961</v>
+        <v>18.59004783630371</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>22.42806625366211</v>
+        <v>22.42807006835938</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>6.817541599273682</v>
+        <v>6.817543029785156</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>19.75581169128418</v>
+        <v>19.75580978393555</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>9.90906810760498</v>
+        <v>9.909061431884766</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>8.266144752502441</v>
+        <v>8.266129493713379</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>33.32681655883789</v>
+        <v>33.32681274414062</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>7.390174865722656</v>
+        <v>7.390181541442871</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.003014206886292</v>
+        <v>1.00301194190979</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>10.19173717498779</v>
+        <v>10.19174194335938</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>15.65737247467041</v>
+        <v>15.65736675262451</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>24.10722732543945</v>
+        <v>24.10722160339355</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>28.56839561462402</v>
+        <v>28.56840133666992</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-3.892826318740845</v>
+        <v>-3.892830848693848</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>24.85909080505371</v>
+        <v>24.85907554626465</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>13.84075164794922</v>
+        <v>13.84074211120605</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>13.64534378051758</v>
+        <v>13.645339012146</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>13.94491386413574</v>
+        <v>13.94490432739258</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>18.90510559082031</v>
+        <v>18.90510368347168</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>18.23527145385742</v>
+        <v>18.23526191711426</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>10.72884750366211</v>
+        <v>10.72885799407959</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>14.84576511383057</v>
+        <v>14.8457727432251</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>14.23844718933105</v>
+        <v>14.23843860626221</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>20.18024635314941</v>
+        <v>20.18024253845215</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>18.49979209899902</v>
+        <v>18.49979591369629</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>14.04875087738037</v>
+        <v>14.048752784729</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>3.374634027481079</v>
+        <v>3.374632358551025</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>18.82040596008301</v>
+        <v>18.82041168212891</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>47.4245</v>
       </c>
       <c r="F62">
-        <v>23.2961254119873</v>
+        <v>23.29613876342773</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>18.64360809326172</v>
+        <v>18.64361381530762</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>9.320011138916016</v>
+        <v>9.320023536682129</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>16.07843208312988</v>
+        <v>16.07844543457031</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>12.73629474639893</v>
+        <v>12.73628902435303</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>7.862278461456299</v>
+        <v>7.862276077270508</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>11.9671745300293</v>
+        <v>11.96718406677246</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>18.20549201965332</v>
+        <v>18.20548629760742</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>30.68782997131348</v>
+        <v>30.68783187866211</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>8.48268985748291</v>
+        <v>8.482694625854492</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>19.38116645812988</v>
+        <v>19.38117980957031</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>18.51752662658691</v>
+        <v>18.51753234863281</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>8.04936695098877</v>
+        <v>8.04936408996582</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-1.146000266075134</v>
+        <v>-1.146004319190979</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>21.7569522857666</v>
+        <v>21.75693893432617</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-7.151005268096924</v>
+        <v>-7.151013374328613</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>14.08244037628174</v>
+        <v>14.08243846893311</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>17.83026504516602</v>
+        <v>17.83026313781738</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>17.4583625793457</v>
+        <v>17.45836448669434</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>22.76826667785645</v>
+        <v>22.76827049255371</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>12.97643566131592</v>
+        <v>12.97642230987549</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-2.42069673538208</v>
+        <v>-2.420699119567871</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>3.400830268859863</v>
+        <v>3.400822162628174</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>50.4563</v>
       </c>
       <c r="F89">
-        <v>29.19531440734863</v>
+        <v>29.19531059265137</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>13.18100929260254</v>
+        <v>13.18099117279053</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>5.857381820678711</v>
+        <v>5.857391357421875</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>17.35260391235352</v>
+        <v>17.35260772705078</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>7.691270351409912</v>
+        <v>7.691256523132324</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>14.49493217468262</v>
+        <v>14.49493408203125</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>12.61452674865723</v>
+        <v>12.61453056335449</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>-2.312062740325928</v>
+        <v>-2.312074422836304</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>23.24839782714844</v>
+        <v>23.24840354919434</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>15.03341579437256</v>
+        <v>15.03340435028076</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>28.00653648376465</v>
+        <v>28.00652122497559</v>
       </c>
     </row>
     <row r="100" spans="1:6">
